--- a/daily_matches/job_matches_2026-02-28.xlsx
+++ b/daily_matches/job_matches_2026-02-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AI/ML Data Scientist (GPSSC)</t>
+          <t>Software Engineer - Test Automation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>General Motors (GM)</t>
+          <t>KLA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Warren, MI, US USA</t>
+          <t>Milpitas, CA, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>27.8</v>
+        <v>22.2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Data Scientist, Generative AI, LangChain, RAG, TensorFlow, PyTorch, XGBoost, S3, BigQuery, Data Lake</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, Keras, BigQuery, Kubernetes, Jenkins, Git, BigQuery</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,32 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=814016ce86a7c72d</t>
+          <t>https://www.indeed.com/viewjob?jk=463a562e09f02043</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Software Engineer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Sifted</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Raleigh, NC, US USA</t>
+          <t>US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>21.1</v>
+        <v>18.9</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, LangChain, RAG, LLaMA, Copilot, Pinecone, Prompt Engineering, S3, EC2, Jenkins</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,32 +536,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=cbc1e170de38a542</t>
+          <t>https://www.indeed.com/viewjob?jk=18bfc6e6a18ce553</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Gen AI Engineer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Tata Consultancy Services (TCS)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Providence, RI, US USA</t>
+          <t>Corpus Christi, TX, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>21.1</v>
+        <v>17.8</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, LLaMA, Gemini, Hugging Face, Prompt Engineering, TensorFlow, PyTorch</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,592 +571,592 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2fb7e47147703669</t>
+          <t>https://www.indeed.com/viewjob?jk=a1e06a9779c3b963</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Associate, Digital Finance Transformation - Data Scientist - Private Equity Performance Improvement (OPEN TO ALL US LOCATIONS)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Alvarez &amp; Marsal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Montpelier, VT, US USA</t>
+          <t>Greenwood Village, CO, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21.1</v>
+        <v>15.6</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, Glue, Synapse, Git, Snowflake, Databricks, Python</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3ddf12bf17952542</t>
+          <t>https://www.indeed.com/viewjob?jk=ad62cdcb252c06b4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Associate, Digital Finance Transformation - Data Scientist - Private Equity Performance Improvement (OPEN TO ALL US LOCATIONS)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Alvarez &amp; Marsal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Albany, NY, US USA</t>
+          <t>Washington, DC, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>21.1</v>
+        <v>15.6</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, Glue, Synapse, Git, Snowflake, Databricks, Python</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=cee6c496d5c139e0</t>
+          <t>https://www.indeed.com/viewjob?jk=2bc4e267bb7823be</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Associate, Digital Finance Transformation - Data Scientist - Private Equity Performance Improvement (OPEN TO ALL US LOCATIONS)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Alvarez &amp; Marsal</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tallahassee, FL, US USA</t>
+          <t>Atlanta, GA, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>21.1</v>
+        <v>15.6</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, Glue, Synapse, Git, Snowflake, Databricks, Python</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=47d835fb4980e543</t>
+          <t>https://www.indeed.com/viewjob?jk=83fa755414d50a72</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Associate, Digital Finance Transformation - Data Scientist - Private Equity Performance Improvement (OPEN TO ALL US LOCATIONS)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Alvarez &amp; Marsal</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dover, DE, US USA</t>
+          <t>Chicago, IL, US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>21.1</v>
+        <v>15.6</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, Glue, Synapse, Git, Snowflake, Databricks, Python</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f67d1f7e92d58f78</t>
+          <t>https://www.indeed.com/viewjob?jk=488428b5100aed7f</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Associate, Digital Finance Transformation - Data Scientist - Private Equity Performance Improvement (OPEN TO ALL US LOCATIONS)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Alvarez &amp; Marsal</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Trenton, NJ, US USA</t>
+          <t>Boston, MA, US USA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>21.1</v>
+        <v>15.6</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, Glue, Synapse, Git, Snowflake, Databricks, Python</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7040f1aee7737f66</t>
+          <t>https://www.indeed.com/viewjob?jk=9acacc05159bbd8b</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Associate, Digital Finance Transformation - Data Scientist - Private Equity Performance Improvement (OPEN TO ALL US LOCATIONS)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Alvarez &amp; Marsal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Columbia, SC, US USA</t>
+          <t>Phoenix, AZ, US USA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>21.1</v>
+        <v>15.6</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, Glue, Synapse, Git, Snowflake, Databricks, Python</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=860da345ddc950ad</t>
+          <t>https://www.indeed.com/viewjob?jk=cbe64447f42b99fd</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Associate, Digital Finance Transformation - Data Scientist - Private Equity Performance Improvement (OPEN TO ALL US LOCATIONS)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Alvarez &amp; Marsal</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Charleston, WV, US USA</t>
+          <t>Miami, FL, US USA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>21.1</v>
+        <v>15.6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, Glue, Synapse, Git, Snowflake, Databricks, Python</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=04d1b2cb6836d9fb</t>
+          <t>https://www.indeed.com/viewjob?jk=886ec9fbb2989eb3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Associate, Digital Finance Transformation - Data Scientist - Private Equity Performance Improvement (OPEN TO ALL US LOCATIONS)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Alvarez &amp; Marsal</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Wellesley, MA, US USA</t>
+          <t>Tampa, FL, US USA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>21.1</v>
+        <v>15.6</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, Glue, Synapse, Git, Snowflake, Databricks, Python</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3dc162366041ff6c</t>
+          <t>https://www.indeed.com/viewjob?jk=eda4ce3023325ae3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Associate, Digital Finance Transformation - Data Scientist - Private Equity Performance Improvement (OPEN TO ALL US LOCATIONS)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Alvarez &amp; Marsal</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Harrisburg, PA, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>21.1</v>
+        <v>15.6</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, Glue, Synapse, Git, Snowflake, Databricks, Python</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=72da55c27901afb4</t>
+          <t>https://www.indeed.com/viewjob?jk=3ac6a8b7258b4db0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Associate, Digital Finance Transformation - Data Scientist - Private Equity Performance Improvement (OPEN TO ALL US LOCATIONS)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Alvarez &amp; Marsal</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Atlanta, GA, US USA</t>
+          <t>San Francisco, CA, US USA</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21.1</v>
+        <v>15.6</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, Glue, Synapse, Git, Snowflake, Databricks, Python</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=d2f1c87acc33c922</t>
+          <t>https://www.indeed.com/viewjob?jk=92087e0417204ffa</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Associate, Digital Finance Transformation - Data Scientist - Private Equity Performance Improvement (OPEN TO ALL US LOCATIONS)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Alvarez &amp; Marsal</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>Troy, MI, US USA</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>21.1</v>
+        <v>15.6</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, Glue, Synapse, Git, Snowflake, Databricks, Python</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b688f06a88c709cf</t>
+          <t>https://www.indeed.com/viewjob?jk=d0dafbc85dde6ad1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Associate, Digital Finance Transformation - Data Scientist - Private Equity Performance Improvement (OPEN TO ALL US LOCATIONS)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Alvarez &amp; Marsal</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Annapolis, MD, US USA</t>
+          <t>Los Angeles, CA, US USA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>21.1</v>
+        <v>15.6</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, Glue, Synapse, Git, Snowflake, Databricks, Python</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3305843ae9f3042d</t>
+          <t>https://www.indeed.com/viewjob?jk=06a5ea547b0b409c</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Associate, Digital Finance Transformation - Data Scientist - Private Equity Performance Improvement (OPEN TO ALL US LOCATIONS)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Alvarez &amp; Marsal</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Augusta, ME, US USA</t>
+          <t>Houston, TX, US USA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>21.1</v>
+        <v>15.6</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, Glue, Synapse, Git, Snowflake, Databricks, Python</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=162dea578f92102e</t>
+          <t>https://www.indeed.com/viewjob?jk=783e4198dfc74675</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Associate, Digital Finance Transformation - Data Scientist - Private Equity Performance Improvement (OPEN TO ALL US LOCATIONS)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Alvarez &amp; Marsal</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Concord, NH, US USA</t>
+          <t>Dallas, TX, US USA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>21.1</v>
+        <v>15.6</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, Glue, Synapse, Git, Snowflake, Databricks, Python</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=073a8ebaffd9e57c</t>
+          <t>https://www.indeed.com/viewjob?jk=344cbdafffd4b8b1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Wells Fargo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Washington, DC, US USA</t>
+          <t>Charlotte, NC, US USA</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>21.1</v>
+        <v>14.4</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>AI Engineer, Generative AI, Gemini, Pinecone, Prompt Engineering, Docker, Kubernetes, Git, MongoDB, Python</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=eafc79be2600e030</t>
+          <t>https://www.indeed.com/viewjob?jk=9c476ac432d7de6d</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Applied AI/ML Associate</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>JPMorganChase</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Boston, MA, US USA</t>
+          <t>Chicago, IL, US USA</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>21.1</v>
+        <v>14.4</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Generative AI, RAG, TensorFlow, PyTorch, Docker, Kubernetes, Snowflake, Databricks, PySpark, Python</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=fde024b3eb291739</t>
+          <t>https://www.indeed.com/viewjob?jk=d536353670857d77</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Cornerstone OnDemand</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Hartford, CT, US USA</t>
+          <t>Dublin, CA, US USA</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>21.1</v>
+        <v>13.3</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Generative AI, S3, EC2, Docker, Kubernetes, CI/CD, Terraform, NoSQL, SQL, R</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1166,32 +1166,32 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2e1646af17e97ebd</t>
+          <t>https://www.indeed.com/viewjob?jk=80bd47c732eab56e</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Hartford, CT, US USA</t>
+          <t>St. Louis, MO, US USA</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>21.1</v>
+        <v>12.2</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1201,32 +1201,32 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=53784fb2b4d41b90</t>
+          <t>https://www.indeed.com/viewjob?jk=2bc1ce034d072880</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Richmond, VA, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>21.1</v>
+        <v>12.2</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1236,32 +1236,32 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=38a1ba5de59cfedc</t>
+          <t>https://www.indeed.com/viewjob?jk=596deed38c362a1d</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Augusta, ME, US USA</t>
+          <t>Tempe, AZ, US USA</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>12.2</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1271,32 +1271,32 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2c1959975fa698f5</t>
+          <t>https://www.indeed.com/viewjob?jk=d19a025e6bd6d5bd</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>Austin, TX, US USA</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>12.2</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1306,32 +1306,32 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b99a14ec8d003a09</t>
+          <t>https://www.indeed.com/viewjob?jk=3ec31e36c5de02aa</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Raleigh, NC, US USA</t>
+          <t>Houston, TX, US USA</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>20</v>
+        <v>12.2</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1341,32 +1341,32 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=23be1db7b51ce1cb</t>
+          <t>https://www.indeed.com/viewjob?jk=b7e540710a389000</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Washington, DC, US USA</t>
+          <t>Dallas, TX, US USA</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>20</v>
+        <v>12.2</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1376,32 +1376,32 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=041927784c1965b6</t>
+          <t>https://www.indeed.com/viewjob?jk=feeeac4fa3a42f24</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Charleston, WV, US USA</t>
+          <t>Indianapolis, IN, US USA</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>20</v>
+        <v>12.2</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1411,32 +1411,32 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=4c7494fed52583a9</t>
+          <t>https://www.indeed.com/viewjob?jk=011eeb69e8fec14f</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Atlanta, GA, US USA</t>
+          <t>Morristown, NJ, US USA</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>20</v>
+        <v>12.2</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1446,32 +1446,32 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=074a5ef8227c514a</t>
+          <t>https://www.indeed.com/viewjob?jk=399c759e16e58f61</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Albany, NY, US USA</t>
+          <t>Philadelphia, PA, US USA</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>20</v>
+        <v>12.2</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1481,32 +1481,32 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=5511d29a71ff3c56</t>
+          <t>https://www.indeed.com/viewjob?jk=daaec8e72d6a45b0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Boston, MA, US USA</t>
+          <t>McLean, VA, US USA</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>20</v>
+        <v>12.2</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1516,32 +1516,32 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8607adca5420fa46</t>
+          <t>https://www.indeed.com/viewjob?jk=24f0fbd177a7dd72</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Providence, RI, US USA</t>
+          <t>Cincinnati, OH, US USA</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>20</v>
+        <v>12.2</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1551,32 +1551,32 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=d756737f865a7c90</t>
+          <t>https://www.indeed.com/viewjob?jk=3fb93a30ba94f803</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Concord, NH, US USA</t>
+          <t>Nashville, TN, US USA</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>20</v>
+        <v>12.2</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1586,32 +1586,32 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=6ab90447c276b3c3</t>
+          <t>https://www.indeed.com/viewjob?jk=dd7ba4869408ed3c</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Harrisburg, PA, US USA</t>
+          <t>Seattle, WA, US USA</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>20</v>
+        <v>12.2</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1621,32 +1621,32 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=4e24ab63d46d7079</t>
+          <t>https://www.indeed.com/viewjob?jk=ada0fd922330a0ec</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Columbus, OH, US USA</t>
+          <t>Cleveland, OH, US USA</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>20</v>
+        <v>12.2</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1656,32 +1656,32 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b0ef17383493f019</t>
+          <t>https://www.indeed.com/viewjob?jk=409ebe72604c1338</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Richmond, VA, US USA</t>
+          <t>Pittsburgh, PA, US USA</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>20</v>
+        <v>12.2</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1691,32 +1691,32 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=081ed29e648e956d</t>
+          <t>https://www.indeed.com/viewjob?jk=67c8b6d9bf1fc1af</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Columbia, SC, US USA</t>
+          <t>Charlotte, NC, US USA</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>20</v>
+        <v>12.2</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1726,32 +1726,32 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=34320be7fb410630</t>
+          <t>https://www.indeed.com/viewjob?jk=ed5389d09b09d3ec</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Lansing, MI, US USA</t>
+          <t>Kansas City, MO, US USA</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>20</v>
+        <v>12.2</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1761,32 +1761,32 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=4113c6a5f4cf1088</t>
+          <t>https://www.indeed.com/viewjob?jk=8c1c51a40bacb950</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Annapolis, MD, US USA</t>
+          <t>Stamford, CT, US USA</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>20</v>
+        <v>12.2</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1796,32 +1796,32 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=913565719678af06</t>
+          <t>https://www.indeed.com/viewjob?jk=117746d6b7c53388</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Tallahassee, FL, US USA</t>
+          <t>San Jose, CA, US USA</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>20</v>
+        <v>12.2</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1831,32 +1831,32 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=11a29b312afbb4f4</t>
+          <t>https://www.indeed.com/viewjob?jk=4628289a62607241</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Dover, DE, US USA</t>
+          <t>Atlanta, GA, US USA</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>20</v>
+        <v>12.2</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1866,32 +1866,32 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=67a7ff90057076ec</t>
+          <t>https://www.indeed.com/viewjob?jk=e3c5c959096e0883</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Hartford, CT, US USA</t>
+          <t>Miami, FL, US USA</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>20</v>
+        <v>12.2</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1901,32 +1901,32 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a64ffe10514d5746</t>
+          <t>https://www.indeed.com/viewjob?jk=8589d2df3b2cc9b6</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Trenton, NJ, US USA</t>
+          <t>Denver, CO, US USA</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>20</v>
+        <v>12.2</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1936,32 +1936,32 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=abe591db35ba960c</t>
+          <t>https://www.indeed.com/viewjob?jk=97d7a058c2360d92</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Hartford, CT, US USA</t>
+          <t>Boston, MA, US USA</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>20</v>
+        <v>12.2</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1971,32 +1971,32 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1160a183c15d3b85</t>
+          <t>https://www.indeed.com/viewjob?jk=d438b7990da688fe</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Montpelier, VT, US USA</t>
+          <t>San Francisco, CA, US USA</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>20</v>
+        <v>12.2</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2006,32 +2006,32 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=58248392c4bed895</t>
+          <t>https://www.indeed.com/viewjob?jk=58cea49ce108a9bb</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Wellesley, MA, US USA</t>
+          <t>Chicago, IL, US USA</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>20</v>
+        <v>12.2</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Dataflow, Kubernetes, AKS, CI/CD, Jenkins, GitHub Actions, Git</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2041,32 +2041,32 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b512f84c4e3c0261</t>
+          <t>https://www.indeed.com/viewjob?jk=551e20e85839e287</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Senior Site Reliability Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Equifax</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Alpharetta, GA, US USA</t>
+          <t>Los Angeles, CA, US USA</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>16.7</v>
+        <v>12.2</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Terraform, Git, BigQuery</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2076,32 +2076,32 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=bba6b64160929f1f</t>
+          <t>https://www.indeed.com/viewjob?jk=998b7f83db1589c3</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Software Engineer, LLM Platform</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CARVANA</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Tempe, AZ, US USA</t>
+          <t>Detroit, MI, US USA</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>15.6</v>
+        <v>12.2</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>RAG, Copilot, Docker, Kubernetes, CI/CD, Git, Kafka, PostgreSQL, NoSQL, Python</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2111,32 +2111,32 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b9642207c5b2cc59</t>
+          <t>https://www.indeed.com/viewjob?jk=9b2833946dcdd17f</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Crum &amp; Forster</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Morristown, NJ, US USA</t>
+          <t>Sacramento, CA, US USA</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>15.6</v>
+        <v>12.2</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>RAG, Cortex, S3, Glue, Athena, Data Lake, Git, Snowflake, Kafka, PostgreSQL</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2146,32 +2146,32 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=5e5863d850559839</t>
+          <t>https://www.indeed.com/viewjob?jk=022317dac33a7f3f</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Senior Analytics Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Checkmate</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>US USA</t>
+          <t>Minneapolis, MN, US USA</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>15.6</v>
+        <v>12.2</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Redshift, BigQuery, Git, Snowflake, BigQuery, Redshift, Kafka, Python, SQL, R</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2181,32 +2181,32 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=102e9f75d4db155a</t>
+          <t>https://www.indeed.com/viewjob?jk=dd6f0b56c99022f9</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Prudential</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Newark, NJ, US USA</t>
+          <t>San Diego, CA, US USA</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>14.4</v>
+        <v>12.2</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, S3, Docker, Kubernetes, CI/CD, Jenkins, Terraform, Git, Python</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2216,32 +2216,32 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b65fc3a984a32f89</t>
+          <t>https://www.indeed.com/viewjob?jk=693e24a07a5e8f17</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Senior Site Reliability Engineer (Public Sector)</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Incode Technologies</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>US USA</t>
+          <t>Tampa, FL, US USA</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13.3</v>
+        <v>12.2</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>S3, Docker, Kubernetes, Terraform, Git, Kafka, PostgreSQL, Python, SQL, R</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2251,32 +2251,32 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ad682b69fc62b5e2</t>
+          <t>https://www.indeed.com/viewjob?jk=d60b178f2aff3e14</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Senior Platform Engineer</t>
+          <t>ConvergeCONSUMER - Data Scientist (Senior Consultant) - Innovation_Delivery_Transformation</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Scotiabank</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Dallas, TX, US USA</t>
+          <t>Costa Mesa, CA, US USA</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>13.3</v>
+        <v>12.2</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>RAG, Docker, AKS, CI/CD, GitHub Actions, Terraform, Git, Databricks, Python, SQL</t>
+          <t>Data Scientist, RAG, Gemini, Kubernetes, Git, PySpark, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2286,32 +2286,32 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=396e79600c7b7785</t>
+          <t>https://www.indeed.com/viewjob?jk=a362a691a1f34a95</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Sr. Windows &amp; Cloud Administrator</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Objectways Technologies</t>
+          <t>AutoZone</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Phoenix, AZ, US USA</t>
+          <t>Elk Grove, CA, US USA</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>13.3</v>
+        <v>12.2</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>RAG, Data Lake, Kinesis, CI/CD, Kafka, Hadoop, Python, SQL, R, Java</t>
+          <t>Generative AI, RAG, Gemini, Copilot, Kubernetes, Terraform, Git, Python, R, Scala</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2321,32 +2321,32 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=cba73fbf347a2d2f</t>
+          <t>https://www.indeed.com/viewjob?jk=f04fdf345d2242d1</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Senior Generative AI Developer-5</t>
+          <t>Senior Engineer, Data Informatics</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Realign</t>
+          <t>Eikon Therapeutics</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Jersey City, NJ, US USA</t>
+          <t>Millbrae, CA, US USA</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>13.3</v>
+        <v>12.2</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, Prompt Engineering, FastAPI, Docker, Kubernetes, CI/CD, Python, SQL, R</t>
+          <t>RAG, Data Lake, Docker, Git, Databricks, Python, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2356,32 +2356,32 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b3dd5e7d5f166445</t>
+          <t>https://www.indeed.com/viewjob?jk=e635d44a1ca175d7</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Senior Generative AI Developer-5</t>
+          <t>AI/LLM SRE Software Engineer III</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Realign</t>
+          <t>JPMorganChase</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Irving, TX, US USA</t>
+          <t>Columbus, OH, US USA</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>13.3</v>
+        <v>11.1</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, Prompt Engineering, FastAPI, Docker, Kubernetes, CI/CD, Python, SQL, R</t>
+          <t>RAG, Copilot, Prompt Engineering, CI/CD, Jenkins, GitHub Actions, Git, Python, R, Scala</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2391,102 +2391,102 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7544df352fa97273</t>
+          <t>https://www.indeed.com/viewjob?jk=3da00a34d922cab3</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Senior Generative AI Developer-5</t>
+          <t>Senior Data Engineer/Analyst</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Realign</t>
+          <t>Fiserv</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Tampa, FL, US USA</t>
+          <t>Berkeley Heights, NJ, US USA</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>13.3</v>
+        <v>11.1</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, Prompt Engineering, FastAPI, Docker, Kubernetes, CI/CD, Python, SQL, R</t>
+          <t>Data Scientist, CI/CD, Git, Snowflake, Tableau, Power BI, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=539a653701298df3</t>
+          <t>https://www.indeed.com/viewjob?jk=c24add604f0e3d4c</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer II, Search</t>
+          <t>Senior Systems Development Engineer</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PlayStation</t>
+          <t>Dell Technologies</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>San Mateo, CA, US USA</t>
+          <t>Austin, TX, US USA</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12.2</v>
+        <v>10</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer, RAG, TensorFlow, PyTorch, Snowflake, Databricks, Python, R, Java, Scala</t>
+          <t>RAG, Kubernetes, MongoDB, NoSQL, Python, SQL, R, Scala, Optimization</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=6a9117e61d6c35de</t>
+          <t>https://www.indeed.com/viewjob?jk=db1e5daa9892f8ee</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Software Engineer, Search Infrastructure - Slack</t>
+          <t>AI Data Analyst - Customer Success</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Salesforce</t>
+          <t>Toast, Inc</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Seattle, WA, US USA</t>
+          <t>Boston, MA, US USA</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>12.2</v>
+        <v>10</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer, Generative AI, Kubernetes, Terraform, Hadoop, MySQL, Python, SQL, R, Java</t>
+          <t>Gemini, Cortex, Git, Snowflake, Tableau, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2496,32 +2496,32 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=887b9ad94b5b444c</t>
+          <t>https://www.indeed.com/viewjob?jk=48d2759402bc24d8</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Software Engineer, Search Data Infrastructure -Slack</t>
+          <t>Senior Quality Engineer</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Salesforce</t>
+          <t>The Walt Disney Company</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Seattle, WA, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>12.2</v>
+        <v>10</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer, Generative AI, Kubernetes, Terraform, Hadoop, MySQL, Python, SQL, R, Java</t>
+          <t>TensorFlow, MLflow, CI/CD, Jenkins, GitHub Actions, Git, Python, R, Java</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2531,1057 +2531,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=969ee1debacb5796</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>AI/ML Modeling Engineer I (Intern)- United States</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Cisco</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>San Francisco, CA, US USA</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Data Scientist, RAG, TensorFlow, PyTorch, Git, Matplotlib, Python, SQL, R, Java</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=9ee6c25aede7fb7f</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>AI/ML Modeling Engineer II (Intern)- United States</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Cisco</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>San Francisco, CA, US USA</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Data Scientist, RAG, TensorFlow, PyTorch, Git, Matplotlib, Python, SQL, R, Java</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=6ceb9d972aef5924</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>AI/ML Engineer</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>i3 Consulting</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Bethesda, MD, US USA</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Data Scientist, Copilot, TensorFlow, PyTorch, Azure ML, Synapse, Data Lake, CI/CD, Python, R</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=c7a4ec93412fd7c6</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Data Platform Engineer</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Scotiabank</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Dallas, TX, US USA</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Databricks, Python, SQL</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=a1a19fc16385452e</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Contract Data Engineer</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Climate Cabinet</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Chicago, IL, US USA</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>RAG, Copilot, Apache Airflow, Git, PostgreSQL, MySQL, Tableau, Power BI, Python, SQL</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=6cc8418979f43c48</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Application Developers</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Roseland, NJ, US USA</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>RAG, Docker, Kubernetes, Jenkins, Git, PostgreSQL, MongoDB, SQL, R, Java</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=fe1b2063f7fc47ae</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Full Stack Engineer</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Smith Farms North</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Baltimore, MD, US USA</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>RAG, Copilot, S3, EC2, CI/CD, Git, MySQL, SQL, R, Java</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=d0367e46838cd0cf</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Quality Engineer, Level 4</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Snap Inc.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Los Angeles, CA, US USA</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>RAG, Copilot, BigQuery, Docker, CI/CD, Jenkins, Git, BigQuery, Python, R</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=ab98d24229ba7e77</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>LLM Platform Engineer</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>BV Teck</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Miami, FL, US USA</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>RAG, Hugging Face, Prompt Engineering, Docker, Kubernetes, CI/CD, Git, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=595da48ca92a5f44</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>LLM Platform Engineer</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>BV Teck</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Boston, MA, US USA</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>RAG, Hugging Face, Prompt Engineering, Docker, Kubernetes, CI/CD, Git, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=ec6fff1e9c78f471</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>LLM Platform Engineer</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>BV Teck</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Chicago, IL, US USA</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>RAG, Hugging Face, Prompt Engineering, Docker, Kubernetes, CI/CD, Git, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=76c0cd4b2059034d</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>LLM Platform Engineer</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>BV Teck</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Cincinnati, OH, US USA</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>RAG, Hugging Face, Prompt Engineering, Docker, Kubernetes, CI/CD, Git, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=024a694bd76e9932</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>LLM Platform Engineer</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>BV Teck</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Fairfax, VA, US USA</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>RAG, Hugging Face, Prompt Engineering, Docker, Kubernetes, CI/CD, Git, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=8286baa9a376188f</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>LLM Platform Engineer</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>BV Teck</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Atlanta, GA, US USA</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>RAG, Hugging Face, Prompt Engineering, Docker, Kubernetes, CI/CD, Git, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=4a320ba4901f547e</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>LLM Platform Engineer</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>BV Teck</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Charlotte, NC, US USA</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>RAG, Hugging Face, Prompt Engineering, Docker, Kubernetes, CI/CD, Git, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=ffe623f9eff81492</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>LLM Platform Engineer</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>BV Teck</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>San Antonio, TX, US USA</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>RAG, Hugging Face, Prompt Engineering, Docker, Kubernetes, CI/CD, Git, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=518577499072e568</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>LLM Platform Engineer</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>BV Teck</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Indianapolis, IN, US USA</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>RAG, Hugging Face, Prompt Engineering, Docker, Kubernetes, CI/CD, Git, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=355dc632cbc7bf05</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>LLM Platform Engineer</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>BV Teck</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Houston, TX, US USA</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>RAG, Hugging Face, Prompt Engineering, Docker, Kubernetes, CI/CD, Git, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=788797b1d07577af</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>LLM Platform Engineer</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>BV Teck</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Phoenix, AZ, US USA</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>RAG, Hugging Face, Prompt Engineering, Docker, Kubernetes, CI/CD, Git, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=4d990441e6f9fa4f</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>LLM Platform Engineer</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>BV Teck</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Raleigh, NC, US USA</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>RAG, Hugging Face, Prompt Engineering, Docker, Kubernetes, CI/CD, Git, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=928b62627b905ecc</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>LLM Platform Engineer</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>BV Teck</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Philadelphia, PA, US USA</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>RAG, Hugging Face, Prompt Engineering, Docker, Kubernetes, CI/CD, Git, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=ca9733d12bb453e1</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Sr Software Engineer</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Paramount</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Burbank, CA, US USA</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>RAG, Copilot, Docker, Kubernetes, Git, Python, R, Java, Scala, Optimization</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=420672dd85d56519</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Bank of America</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Charlotte, NC, US USA</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Data Scientist, Generative AI, RAG, Git, Cassandra, NoSQL, Python, SQL, R, Java</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=5dbb26eca7e71b00</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Big Shot Pictures</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Los Angeles, CA, US USA</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Data Scientist, FAISS, Pinecone, TensorFlow, PyTorch, Git, Power BI, Python, R, A/B Testing</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>2026-02-01</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=94082c3ffc6cc710</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Backend Software Engineer</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Aquila Software Group</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Pembroke Pines, FL, US USA</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>10</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>RAG, FastAPI, CI/CD, Git, PostgreSQL, Python, SQL, R, Scala</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=13d753024d03d8df</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Senior Software Engineer, Agentic AI for Science</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>NVIDIA</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Santa Clara, CA, US USA</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>10</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>TensorFlow, PyTorch, Docker, CI/CD, Jenkins, Git, Python, R, Optimization</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=99b12ab885bf8771</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Senior Full Stack Engineer (Informatica)</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Blue Shield of California</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Oakland, CA, US USA</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>10</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>RAG, CI/CD, GitHub Actions, Terraform, Git, Python, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=94a7e1aa7c7ba0e7</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Sr.Node JS Developer – R01561357</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Brillio LLC</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>St. Louis, MO, US USA</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>10</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Generative AI, RAG, Docker, Kubernetes, CI/CD, Git, SQL, R, Java</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=c43a909c7851dfd2</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Applied Machine Learning Scientist II (US)</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>TD Bank</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>New York, NY, US USA</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>10</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Generative AI, LangChain, RAG, PyTorch, PySpark, Hadoop, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=e65b81c5b2486081</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Senior Software Engineer</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>DataVisor</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Mountain View, CA, US USA</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>10</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>RAG, Kafka, Hadoop, Cassandra, Python, SQL, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>2025-06-15</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=b14a69afc592e39d</t>
+          <t>https://www.indeed.com/viewjob?jk=70e87e376f88b615</t>
         </is>
       </c>
     </row>
